--- a/peg-in-hole/results.xlsx
+++ b/peg-in-hole/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamik\Documents\GitHub\peg-in-hole\peg-in-hole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC04C9F1-72A4-4740-95F9-96929C579062}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F37C880-F55D-40A3-8B3C-AF486AEEF420}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{40D8E76C-4098-48A4-8A48-FD60AD97872A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
   <si>
     <t>length</t>
   </si>
@@ -473,7 +473,7 @@
   <dimension ref="B3:U679"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
